--- a/Data/EUDA/Cannabis_detaille/niveau_educ_global.xlsx
+++ b/Data/EUDA/Cannabis_detaille/niveau_educ_global.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Never went to school / never completed primary school (ISCED 0).global</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Never went to school / never completed primary school (ISCED 0)</t>
+          <t>Primary level of education (ISCED 1).global</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Primary level of education (ISCED 1)</t>
+          <t>Secondary level of education (ISCED 2 and ISCED 3).global</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Secondary level of education (ISCED 2 and ISCED 3)</t>
+          <t>Higher education (ISCED 4 to ISCED 6).global</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Higher education (ISCED 4 to ISCED 6)</t>
+          <t>Not known / missing.global</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.global</t>
         </is>
       </c>
     </row>
@@ -482,24 +477,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>989</v>
       </c>
       <c r="E2" t="n">
-        <v>989</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
-      </c>
-      <c r="H2" t="n">
         <v>1124</v>
       </c>
     </row>
@@ -510,24 +502,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>73</v>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>971</v>
       </c>
       <c r="D3" t="n">
-        <v>971</v>
+        <v>1752</v>
       </c>
       <c r="E3" t="n">
-        <v>1752</v>
+        <v>207</v>
       </c>
       <c r="F3" t="n">
-        <v>207</v>
+        <v>498</v>
       </c>
       <c r="G3" t="n">
-        <v>498</v>
-      </c>
-      <c r="H3" t="n">
         <v>3501</v>
       </c>
     </row>
@@ -538,24 +527,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
         <v>109</v>
       </c>
     </row>
@@ -566,24 +552,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="D5" t="n">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="E5" t="n">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
-      </c>
-      <c r="H5" t="n">
         <v>478</v>
       </c>
     </row>
@@ -594,24 +577,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D6" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E6" t="n">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
-      </c>
-      <c r="H6" t="n">
         <v>340</v>
       </c>
     </row>
@@ -621,23 +601,20 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>236</v>
+      </c>
       <c r="D7" t="n">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E7" t="n">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>605</v>
       </c>
       <c r="G7" t="n">
-        <v>605</v>
-      </c>
-      <c r="H7" t="n">
         <v>1072</v>
       </c>
     </row>
@@ -648,24 +625,21 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="D8" t="n">
-        <v>444</v>
+        <v>2002</v>
       </c>
       <c r="E8" t="n">
-        <v>2002</v>
+        <v>544</v>
       </c>
       <c r="F8" t="n">
-        <v>544</v>
+        <v>95</v>
       </c>
       <c r="G8" t="n">
-        <v>95</v>
-      </c>
-      <c r="H8" t="n">
         <v>3085</v>
       </c>
     </row>
@@ -676,20 +650,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
-      </c>
-      <c r="E9" t="n">
         <v>14</v>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
+      <c r="G9" t="n">
         <v>26</v>
       </c>
     </row>
@@ -700,24 +671,21 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>40</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15</v>
-      </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" t="n">
         <v>62</v>
       </c>
     </row>
@@ -728,24 +696,21 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>70</v>
       </c>
       <c r="C11" t="n">
-        <v>70</v>
+        <v>549</v>
       </c>
       <c r="D11" t="n">
-        <v>549</v>
+        <v>12070</v>
       </c>
       <c r="E11" t="n">
-        <v>12070</v>
+        <v>2128</v>
       </c>
       <c r="F11" t="n">
-        <v>2128</v>
+        <v>4941</v>
       </c>
       <c r="G11" t="n">
-        <v>4941</v>
-      </c>
-      <c r="H11" t="n">
         <v>19758</v>
       </c>
     </row>
@@ -755,21 +720,18 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>5076</v>
+      </c>
       <c r="D12" t="n">
-        <v>5076</v>
-      </c>
-      <c r="E12" t="n">
         <v>15878</v>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>2274</v>
+      </c>
       <c r="G12" t="n">
-        <v>2274</v>
-      </c>
-      <c r="H12" t="n">
         <v>23228</v>
       </c>
     </row>
@@ -780,24 +742,21 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>664</v>
       </c>
       <c r="E13" t="n">
-        <v>664</v>
+        <v>114</v>
       </c>
       <c r="F13" t="n">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G13" t="n">
-        <v>98</v>
-      </c>
-      <c r="H13" t="n">
         <v>989</v>
       </c>
     </row>
@@ -808,24 +767,21 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>1036</v>
       </c>
       <c r="D14" t="n">
-        <v>1036</v>
+        <v>1423</v>
       </c>
       <c r="E14" t="n">
-        <v>1423</v>
+        <v>178</v>
       </c>
       <c r="F14" t="n">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="G14" t="n">
-        <v>73</v>
-      </c>
-      <c r="H14" t="n">
         <v>2743</v>
       </c>
     </row>
@@ -836,24 +792,21 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="D15" t="n">
-        <v>270</v>
+        <v>1603</v>
       </c>
       <c r="E15" t="n">
-        <v>1603</v>
+        <v>166</v>
       </c>
       <c r="F15" t="n">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="G15" t="n">
-        <v>122</v>
-      </c>
-      <c r="H15" t="n">
         <v>2184</v>
       </c>
     </row>
@@ -864,24 +817,21 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="D16" t="n">
-        <v>275</v>
+        <v>5382</v>
       </c>
       <c r="E16" t="n">
-        <v>5382</v>
+        <v>132</v>
       </c>
       <c r="F16" t="n">
-        <v>132</v>
+        <v>1678</v>
       </c>
       <c r="G16" t="n">
-        <v>1678</v>
-      </c>
-      <c r="H16" t="n">
         <v>7516</v>
       </c>
     </row>
@@ -892,24 +842,21 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E17" t="n">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="G17" t="n">
-        <v>88</v>
-      </c>
-      <c r="H17" t="n">
         <v>241</v>
       </c>
     </row>
@@ -919,19 +866,16 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2022</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
       <c r="E18" t="n">
-        <v>20</v>
-      </c>
-      <c r="F18" t="n">
         <v>5</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
         <v>25</v>
       </c>
     </row>
@@ -942,22 +886,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
-      </c>
-      <c r="E19" t="n">
         <v>40</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
       <c r="G19" t="n">
-        <v>12</v>
-      </c>
-      <c r="H19" t="n">
         <v>108</v>
       </c>
     </row>
@@ -968,24 +909,21 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="E20" t="n">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
-      </c>
-      <c r="H20" t="n">
         <v>233</v>
       </c>
     </row>
@@ -996,24 +934,21 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>221</v>
       </c>
       <c r="C21" t="n">
-        <v>221</v>
+        <v>1034</v>
       </c>
       <c r="D21" t="n">
-        <v>1034</v>
+        <v>1692</v>
       </c>
       <c r="E21" t="n">
-        <v>1692</v>
+        <v>211</v>
       </c>
       <c r="F21" t="n">
-        <v>211</v>
+        <v>2044</v>
       </c>
       <c r="G21" t="n">
-        <v>2044</v>
-      </c>
-      <c r="H21" t="n">
         <v>5202</v>
       </c>
     </row>
@@ -1029,7 +964,6 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1038,24 +972,21 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="D23" t="n">
-        <v>273</v>
+        <v>684</v>
       </c>
       <c r="E23" t="n">
-        <v>684</v>
+        <v>148</v>
       </c>
       <c r="F23" t="n">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>33</v>
-      </c>
-      <c r="H23" t="n">
         <v>1165</v>
       </c>
     </row>
@@ -1066,24 +997,21 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>13</v>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>347</v>
       </c>
       <c r="D24" t="n">
-        <v>347</v>
+        <v>746</v>
       </c>
       <c r="E24" t="n">
-        <v>746</v>
+        <v>114</v>
       </c>
       <c r="F24" t="n">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
-      </c>
-      <c r="H24" t="n">
         <v>1238</v>
       </c>
     </row>
@@ -1094,24 +1022,21 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>1490</v>
       </c>
       <c r="E25" t="n">
-        <v>1490</v>
+        <v>372</v>
       </c>
       <c r="F25" t="n">
-        <v>372</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>29</v>
-      </c>
-      <c r="H25" t="n">
         <v>1976</v>
       </c>
     </row>
@@ -1122,24 +1047,21 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="D26" t="n">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="E26" t="n">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G26" t="n">
-        <v>45</v>
-      </c>
-      <c r="H26" t="n">
         <v>514</v>
       </c>
     </row>
@@ -1150,24 +1072,21 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
         <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1178,24 +1097,21 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>1401</v>
       </c>
       <c r="C28" t="n">
-        <v>1401</v>
+        <v>4698</v>
       </c>
       <c r="D28" t="n">
-        <v>4698</v>
+        <v>5131</v>
       </c>
       <c r="E28" t="n">
-        <v>5131</v>
+        <v>610</v>
       </c>
       <c r="F28" t="n">
-        <v>610</v>
+        <v>510</v>
       </c>
       <c r="G28" t="n">
-        <v>510</v>
-      </c>
-      <c r="H28" t="n">
         <v>12350</v>
       </c>
     </row>
@@ -1206,24 +1122,21 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
-      </c>
-      <c r="H29" t="n">
         <v>43</v>
       </c>
     </row>
@@ -1234,24 +1147,21 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>820</v>
       </c>
       <c r="D30" t="n">
-        <v>820</v>
+        <v>116</v>
       </c>
       <c r="E30" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
         <v>946</v>
       </c>
     </row>
@@ -1263,7 +1173,6 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1277,7 +1186,6 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1291,7 +1199,6 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1305,7 +1212,6 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1319,7 +1225,6 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1333,7 +1238,6 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1347,7 +1251,6 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
